--- a/Assignment/State Assignment.xlsx
+++ b/Assignment/State Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\State Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F5F18-0343-4AF4-8B2F-434AAEB7DD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00859581-1565-475F-971B-EE65F1F60580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB9B329F-7814-4F62-B66B-E4BE62762A73}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
   <si>
     <t>Mean=</t>
   </si>
@@ -262,6 +262,45 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Quartile(Q3)</t>
+  </si>
+  <si>
+    <t>Median(Q2)</t>
+  </si>
+  <si>
+    <t>Quartile(Q1)</t>
+  </si>
+  <si>
+    <t>10th Percentile</t>
+  </si>
+  <si>
+    <t>25th Percentile</t>
+  </si>
+  <si>
+    <t>75th Percentile</t>
+  </si>
+  <si>
+    <t>90th Percentile</t>
+  </si>
+  <si>
+    <t>15th Percentile</t>
+  </si>
+  <si>
+    <t>50th Percentile</t>
+  </si>
+  <si>
+    <t>85th Percentile</t>
+  </si>
+  <si>
+    <t>20th Percentile</t>
+  </si>
+  <si>
+    <t>40th Percentile</t>
+  </si>
+  <si>
+    <t>80th Percentile</t>
   </si>
 </sst>
 </file>
@@ -9405,14 +9444,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8446E3F8-F948-4E1F-8852-A45718EC9595}">
   <dimension ref="I4:R707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q641" sqref="Q641"/>
+    <sheetView tabSelected="1" topLeftCell="B523" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R677" sqref="R677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="7.21875" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="11:13" x14ac:dyDescent="0.3">
@@ -15262,7 +15303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="593" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="593" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I593">
         <v>22</v>
       </c>
@@ -15279,7 +15320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="594" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="594" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I594">
         <v>19</v>
       </c>
@@ -15296,7 +15337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="595" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="595" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I595">
         <v>13</v>
       </c>
@@ -15313,7 +15354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="596" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="596" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I596">
         <v>16</v>
       </c>
@@ -15330,7 +15371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="597" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="597" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I597">
         <v>21</v>
       </c>
@@ -15347,7 +15388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="598" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="598" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I598">
         <v>22</v>
       </c>
@@ -15364,7 +15405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="599" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I599">
         <v>17</v>
       </c>
@@ -15381,7 +15422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="600" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I600">
         <v>19</v>
       </c>
@@ -15398,7 +15439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="601" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="601" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I601">
         <v>22</v>
       </c>
@@ -15415,7 +15456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="602" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="602" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I602">
         <v>18</v>
       </c>
@@ -15432,12 +15473,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="606" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="606" spans="9:17" x14ac:dyDescent="0.3">
       <c r="J606" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="607" spans="9:17" x14ac:dyDescent="0.3">
       <c r="J607">
         <v>40</v>
       </c>
@@ -15454,7 +15495,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="608" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="608" spans="9:17" x14ac:dyDescent="0.3">
       <c r="J608">
         <v>45</v>
       </c>
@@ -15470,8 +15511,15 @@
       <c r="N608">
         <v>500</v>
       </c>
-    </row>
-    <row r="609" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="P608" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q608">
+        <f>QUARTILE(J607:N630,1)</f>
+        <v>136.25</v>
+      </c>
+    </row>
+    <row r="609" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J609">
         <v>50</v>
       </c>
@@ -15484,8 +15532,15 @@
       <c r="M609">
         <v>385</v>
       </c>
-    </row>
-    <row r="610" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="P609" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q609">
+        <f>MEDIAN(J607:N630)</f>
+        <v>257.5</v>
+      </c>
+    </row>
+    <row r="610" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J610">
         <v>55</v>
       </c>
@@ -15498,8 +15553,15 @@
       <c r="M610">
         <v>390</v>
       </c>
-    </row>
-    <row r="611" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="P610" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q610">
+        <f>QUARTILE(J607:M630,3)</f>
+        <v>371.25</v>
+      </c>
+    </row>
+    <row r="611" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J611">
         <v>60</v>
       </c>
@@ -15513,7 +15575,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="612" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="612" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J612">
         <v>62</v>
       </c>
@@ -15526,8 +15588,15 @@
       <c r="M612">
         <v>400</v>
       </c>
-    </row>
-    <row r="613" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="P612" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q612">
+        <f>PERCENTILE(J607:N630,0.1)</f>
+        <v>77.100000000000009</v>
+      </c>
+    </row>
+    <row r="613" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J613">
         <v>68</v>
       </c>
@@ -15540,8 +15609,15 @@
       <c r="M613">
         <v>405</v>
       </c>
-    </row>
-    <row r="614" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="P613" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q613">
+        <f>PERCENTILE(J607:N630,0.25)</f>
+        <v>136.25</v>
+      </c>
+    </row>
+    <row r="614" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J614">
         <v>70</v>
       </c>
@@ -15554,8 +15630,15 @@
       <c r="M614">
         <v>410</v>
       </c>
-    </row>
-    <row r="615" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="P614" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q614">
+        <f>PERCENTILE(J607:N630,0.75)</f>
+        <v>378.75</v>
+      </c>
+    </row>
+    <row r="615" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J615">
         <v>72</v>
       </c>
@@ -15568,8 +15651,15 @@
       <c r="M615">
         <v>415</v>
       </c>
-    </row>
-    <row r="616" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="P615" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q615">
+        <f>PERCENTILE(J607:N630,0.9)</f>
+        <v>451.5</v>
+      </c>
+    </row>
+    <row r="616" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J616">
         <v>75</v>
       </c>
@@ -15583,7 +15673,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="617" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="617" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J617">
         <v>78</v>
       </c>
@@ -15597,7 +15687,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="618" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="618" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J618">
         <v>80</v>
       </c>
@@ -15611,7 +15701,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="619" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="619" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J619">
         <v>82</v>
       </c>
@@ -15625,7 +15715,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="620" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="620" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J620">
         <v>88</v>
       </c>
@@ -15639,7 +15729,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="621" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="621" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J621">
         <v>90</v>
       </c>
@@ -15653,7 +15743,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="622" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="622" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J622">
         <v>92</v>
       </c>
@@ -15667,7 +15757,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="623" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="623" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J623">
         <v>95</v>
       </c>
@@ -15681,7 +15771,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="624" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="624" spans="10:17" x14ac:dyDescent="0.3">
       <c r="J624">
         <v>100</v>
       </c>
@@ -15695,7 +15785,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="625" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="625" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J625">
         <v>105</v>
       </c>
@@ -15709,7 +15799,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="626" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="626" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J626">
         <v>110</v>
       </c>
@@ -15723,7 +15813,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="627" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="627" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J627">
         <v>115</v>
       </c>
@@ -15737,7 +15827,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="628" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="628" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J628">
         <v>120</v>
       </c>
@@ -15751,7 +15841,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="629" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="629" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J629">
         <v>125</v>
       </c>
@@ -15765,7 +15855,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="630" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="630" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J630">
         <v>130</v>
       </c>
@@ -15779,12 +15869,12 @@
         <v>490</v>
       </c>
     </row>
-    <row r="632" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="632" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J632" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="633" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="633" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J633">
         <v>55</v>
       </c>
@@ -15798,7 +15888,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="634" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="634" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J634">
         <v>60</v>
       </c>
@@ -15811,8 +15901,15 @@
       <c r="M634">
         <v>405</v>
       </c>
-    </row>
-    <row r="635" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="O634" t="s">
+        <v>78</v>
+      </c>
+      <c r="P634">
+        <f>QUARTILE(J633:M657,1)</f>
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="635" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J635">
         <v>62</v>
       </c>
@@ -15825,8 +15922,15 @@
       <c r="M635">
         <v>410</v>
       </c>
-    </row>
-    <row r="636" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="O635" t="s">
+        <v>77</v>
+      </c>
+      <c r="P635">
+        <f>MEDIAN(J633:M657)</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="636" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J636">
         <v>65</v>
       </c>
@@ -15839,8 +15943,15 @@
       <c r="M636">
         <v>415</v>
       </c>
-    </row>
-    <row r="637" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="O636" t="s">
+        <v>76</v>
+      </c>
+      <c r="P636">
+        <f>QUARTILE(J633:M657,3)</f>
+        <v>392.5</v>
+      </c>
+    </row>
+    <row r="637" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J637">
         <v>68</v>
       </c>
@@ -15854,7 +15965,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="638" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="638" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J638">
         <v>70</v>
       </c>
@@ -15867,8 +15978,15 @@
       <c r="M638">
         <v>425</v>
       </c>
-    </row>
-    <row r="639" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="O638" t="s">
+        <v>83</v>
+      </c>
+      <c r="P638">
+        <f>PERCENTILE(J633:M657,0.15)</f>
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="639" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J639">
         <v>72</v>
       </c>
@@ -15881,8 +15999,15 @@
       <c r="M639">
         <v>430</v>
       </c>
-    </row>
-    <row r="640" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="O639" t="s">
+        <v>84</v>
+      </c>
+      <c r="P639">
+        <f>PERCENTILE(J633:M657,0.5)</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="640" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J640">
         <v>75</v>
       </c>
@@ -15894,6 +16019,13 @@
       </c>
       <c r="M640">
         <v>435</v>
+      </c>
+      <c r="O640" t="s">
+        <v>85</v>
+      </c>
+      <c r="P640">
+        <f>PERCENTILE(J633:M657,0.85)</f>
+        <v>441.5</v>
       </c>
     </row>
     <row r="641" spans="10:13" x14ac:dyDescent="0.3">
@@ -16120,7 +16252,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="657" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="657" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J657">
         <v>140</v>
       </c>
@@ -16131,12 +16263,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="658" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="658" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J658" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="659" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="659" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J659">
         <v>20</v>
       </c>
@@ -16153,7 +16285,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="660" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="660" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J660">
         <v>25</v>
       </c>
@@ -16169,8 +16301,15 @@
       <c r="N660">
         <v>465</v>
       </c>
-    </row>
-    <row r="661" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="O660" t="s">
+        <v>78</v>
+      </c>
+      <c r="P660">
+        <f>QUARTILE(J659:N680,1)</f>
+        <v>156.25</v>
+      </c>
+    </row>
+    <row r="661" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J661">
         <v>30</v>
       </c>
@@ -16186,8 +16325,15 @@
       <c r="N661">
         <v>470</v>
       </c>
-    </row>
-    <row r="662" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="O661" t="s">
+        <v>77</v>
+      </c>
+      <c r="P661">
+        <f>MEDIAN(J659:N682)</f>
+        <v>292.5</v>
+      </c>
+    </row>
+    <row r="662" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J662">
         <v>35</v>
       </c>
@@ -16203,8 +16349,15 @@
       <c r="N662">
         <v>475</v>
       </c>
-    </row>
-    <row r="663" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="O662" t="s">
+        <v>76</v>
+      </c>
+      <c r="P662">
+        <f>QUARTILE(J659:N680,3)</f>
+        <v>428.75</v>
+      </c>
+    </row>
+    <row r="663" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J663">
         <v>40</v>
       </c>
@@ -16221,7 +16374,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="664" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="664" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J664">
         <v>45</v>
       </c>
@@ -16237,8 +16390,15 @@
       <c r="N664">
         <v>485</v>
       </c>
-    </row>
-    <row r="665" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="O664" t="s">
+        <v>86</v>
+      </c>
+      <c r="P664">
+        <f>PERCENTILE(J659:N681,0.2)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="665" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J665">
         <v>50</v>
       </c>
@@ -16254,8 +16414,15 @@
       <c r="N665">
         <v>490</v>
       </c>
-    </row>
-    <row r="666" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="O665" t="s">
+        <v>87</v>
+      </c>
+      <c r="P665">
+        <f>PERCENTILE(J659:N680,0.4)</f>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="666" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J666">
         <v>55</v>
       </c>
@@ -16271,8 +16438,15 @@
       <c r="N666">
         <v>495</v>
       </c>
-    </row>
-    <row r="667" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="O666" t="s">
+        <v>88</v>
+      </c>
+      <c r="P666">
+        <f>PERCENTILE(J659:N680,0.8)</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="667" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J667">
         <v>60</v>
       </c>
@@ -16289,7 +16463,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="668" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="668" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J668">
         <v>65</v>
       </c>
@@ -16306,7 +16480,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="669" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="669" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J669">
         <v>70</v>
       </c>
@@ -16323,7 +16497,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="670" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="670" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J670">
         <v>75</v>
       </c>
@@ -16340,7 +16514,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="671" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="671" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J671">
         <v>80</v>
       </c>
@@ -16357,7 +16531,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="672" spans="10:14" x14ac:dyDescent="0.3">
+    <row r="672" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J672">
         <v>85</v>
       </c>
@@ -16374,7 +16548,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="673" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="673" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J673">
         <v>90</v>
       </c>
@@ -16391,7 +16565,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="674" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="674" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J674">
         <v>95</v>
       </c>
@@ -16408,7 +16582,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="675" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="675" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J675">
         <v>100</v>
       </c>
@@ -16425,7 +16599,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="676" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="676" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J676">
         <v>105</v>
       </c>
@@ -16442,7 +16616,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="677" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="677" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J677">
         <v>110</v>
       </c>
@@ -16459,7 +16633,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="678" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="678" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J678">
         <v>115</v>
       </c>
@@ -16476,7 +16650,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="679" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="679" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J679">
         <v>120</v>
       </c>
@@ -16493,7 +16667,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="680" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="680" spans="9:16" x14ac:dyDescent="0.3">
       <c r="J680">
         <v>125</v>
       </c>
@@ -16510,12 +16684,12 @@
         <v>565</v>
       </c>
     </row>
-    <row r="682" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="682" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I682" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="683" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="683" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I683">
         <v>15</v>
       </c>
@@ -16532,7 +16706,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="684" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="684" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I684">
         <v>20</v>
       </c>
@@ -16548,8 +16722,15 @@
       <c r="M684">
         <v>520</v>
       </c>
-    </row>
-    <row r="685" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="O684" t="s">
+        <v>78</v>
+      </c>
+      <c r="P684">
+        <f>QUARTILE(I683:M708,1)</f>
+        <v>163.75</v>
+      </c>
+    </row>
+    <row r="685" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I685">
         <v>25</v>
       </c>
@@ -16565,8 +16746,15 @@
       <c r="M685">
         <v>525</v>
       </c>
-    </row>
-    <row r="686" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="O685" t="s">
+        <v>77</v>
+      </c>
+      <c r="P685">
+        <f>MEDIAN(I683:M707)</f>
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="686" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I686">
         <v>30</v>
       </c>
@@ -16582,8 +16770,15 @@
       <c r="M686">
         <v>530</v>
       </c>
-    </row>
-    <row r="687" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="O686" t="s">
+        <v>76</v>
+      </c>
+      <c r="P686">
+        <f>QUARTILE(I683:M706,3)</f>
+        <v>461.25</v>
+      </c>
+    </row>
+    <row r="687" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I687">
         <v>35</v>
       </c>
@@ -16600,7 +16795,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="688" spans="9:14" x14ac:dyDescent="0.3">
+    <row r="688" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I688">
         <v>40</v>
       </c>
@@ -16616,8 +16811,15 @@
       <c r="M688">
         <v>540</v>
       </c>
-    </row>
-    <row r="689" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="O688" t="s">
+        <v>86</v>
+      </c>
+      <c r="P688">
+        <f>QUARTILE(I683:M707,0.3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="689" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I689">
         <v>45</v>
       </c>
@@ -16633,8 +16835,15 @@
       <c r="M689">
         <v>545</v>
       </c>
-    </row>
-    <row r="690" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="O689" t="s">
+        <v>87</v>
+      </c>
+      <c r="P689">
+        <f>PERCENTILE(I683:M707,0.5)</f>
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="690" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I690">
         <v>50</v>
       </c>
@@ -16650,8 +16859,15 @@
       <c r="M690">
         <v>550</v>
       </c>
-    </row>
-    <row r="691" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="O690" t="s">
+        <v>88</v>
+      </c>
+      <c r="P690">
+        <f>PERCENTILE(I683:M707,0.7)</f>
+        <v>431.5</v>
+      </c>
+    </row>
+    <row r="691" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I691">
         <v>55</v>
       </c>
@@ -16668,7 +16884,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="692" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="692" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I692">
         <v>60</v>
       </c>
@@ -16685,7 +16901,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="693" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="693" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I693">
         <v>65</v>
       </c>
@@ -16702,7 +16918,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="694" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="694" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I694">
         <v>70</v>
       </c>
@@ -16719,7 +16935,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="695" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="695" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I695">
         <v>75</v>
       </c>
@@ -16736,7 +16952,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="696" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="696" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I696">
         <v>80</v>
       </c>
@@ -16753,7 +16969,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="697" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="697" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I697">
         <v>85</v>
       </c>
@@ -16770,7 +16986,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="698" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="698" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I698">
         <v>90</v>
       </c>
@@ -16787,7 +17003,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="699" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="699" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I699">
         <v>95</v>
       </c>
@@ -16804,7 +17020,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="700" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="700" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I700">
         <v>100</v>
       </c>
@@ -16821,7 +17037,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="701" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="701" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I701">
         <v>105</v>
       </c>
@@ -16838,7 +17054,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="702" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="702" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I702">
         <v>110</v>
       </c>
@@ -16855,7 +17071,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="703" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="703" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I703">
         <v>115</v>
       </c>
@@ -16869,7 +17085,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="704" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="704" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I704">
         <v>120</v>
       </c>
